--- a/medicine/Psychotrope/Le_Thé_(Tissot)/Le_Thé_(Tissot).xlsx
+++ b/medicine/Psychotrope/Le_Thé_(Tissot)/Le_Thé_(Tissot).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_(Tissot)</t>
+          <t>Le_Thé_(Tissot)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Thé est une peinture réalisée en 1872 par l'artiste français James Tissot à la peinture à l'huile sur panneau de bois. Le tableau représente une scène dans laquelle une jeune femme réagit à l'annonce du départ d'un capitaine. Le Thé est lui-même une répétition de la partie gauche d'une œuvre plus grande (68,6 × 91,4 cm) de Tissot, Mauvaises Nouvelles. L'œuvre fait partie de la collection du Metropolitan Museum of Art de New York[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Thé est une peinture réalisée en 1872 par l'artiste français James Tissot à la peinture à l'huile sur panneau de bois. Le tableau représente une scène dans laquelle une jeune femme réagit à l'annonce du départ d'un capitaine. Le Thé est lui-même une répétition de la partie gauche d'une œuvre plus grande (68,6 × 91,4 cm) de Tissot, Mauvaises Nouvelles. L'œuvre fait partie de la collection du Metropolitan Museum of Art de New York.
 </t>
         </is>
       </c>
